--- a/Data/Data1.xlsx
+++ b/Data/Data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kukuh Ichsanulkarim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIRA\Local Disk\HALO\MPDW\MPDW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04FA894-731D-43A6-864C-F06F66041C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7945225-BF27-48F8-9679-35A06681E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F87D7EA3-4DF7-48B1-980B-9A660A1969E6}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Batubara (USD/ton)</t>
+    <t>Periodebulan</t>
   </si>
   <si>
-    <t>Periodebulan</t>
+    <t>Batubara(USD/ton)</t>
   </si>
 </sst>
 </file>
@@ -77,9 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +396,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,14 +407,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -431,7 +430,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -447,7 +446,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -463,7 +462,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -479,7 +478,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -495,7 +494,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -511,7 +510,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -527,7 +526,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -543,7 +542,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -559,7 +558,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
@@ -575,7 +574,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
@@ -591,7 +590,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
@@ -607,7 +606,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
@@ -623,7 +622,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
@@ -639,7 +638,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
@@ -655,7 +654,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
@@ -671,7 +670,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
@@ -687,7 +686,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
@@ -703,7 +702,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
@@ -719,7 +718,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
@@ -735,7 +734,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
@@ -751,7 +750,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
@@ -767,7 +766,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
@@ -783,7 +782,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
@@ -799,7 +798,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
@@ -815,7 +814,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
@@ -831,7 +830,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
@@ -847,7 +846,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
@@ -863,7 +862,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
@@ -879,7 +878,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
@@ -895,7 +894,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
@@ -911,7 +910,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
@@ -927,7 +926,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
@@ -943,7 +942,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
@@ -959,7 +958,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
@@ -975,7 +974,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
@@ -991,7 +990,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
@@ -1007,7 +1006,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
@@ -1023,7 +1022,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
@@ -1039,7 +1038,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
@@ -1055,7 +1054,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
@@ -1071,7 +1070,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
@@ -1087,7 +1086,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
@@ -1103,7 +1102,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
@@ -1119,7 +1118,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
@@ -1135,7 +1134,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
@@ -1151,7 +1150,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
@@ -1167,7 +1166,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
@@ -1183,7 +1182,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
@@ -1199,7 +1198,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
@@ -1215,7 +1214,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
@@ -1231,7 +1230,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
@@ -1247,7 +1246,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
@@ -1263,7 +1262,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
@@ -1279,7 +1278,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
@@ -1295,7 +1294,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
@@ -1311,7 +1310,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
@@ -1327,7 +1326,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
@@ -1343,7 +1342,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
@@ -1359,7 +1358,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
@@ -1375,7 +1374,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
@@ -1391,7 +1390,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
@@ -1407,7 +1406,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
@@ -1423,7 +1422,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
